--- a/Informe/Mediciones/CaracteristicaVoIo_Simulado.xlsx
+++ b/Informe/Mediciones/CaracteristicaVoIo_Simulado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B286997-93D1-4E6E-8A04-DBF8F8A89571}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C639DD6-022D-45DF-80EC-8A06A4AA7A8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,7 +377,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="1">
-        <f>D2/A2</f>
+        <f t="shared" ref="C2:C45" si="0">D2/A2</f>
         <v>0.71031669999999991</v>
       </c>
       <c r="D2" s="1">
@@ -389,7 +389,7 @@
         <v>1.25892541179416E-2</v>
       </c>
       <c r="C3" s="1">
-        <f>D3/A3</f>
+        <f t="shared" si="0"/>
         <v>0.71048339450490483</v>
       </c>
       <c r="D3" s="1">
@@ -401,7 +401,7 @@
         <v>1.58489319246111E-2</v>
       </c>
       <c r="C4" s="1">
-        <f>D4/A4</f>
+        <f t="shared" si="0"/>
         <v>0.71069331697419025</v>
       </c>
       <c r="D4" s="1">
@@ -413,7 +413,7 @@
         <v>1.9952623149688799E-2</v>
       </c>
       <c r="C5" s="1">
-        <f>D5/A5</f>
+        <f t="shared" si="0"/>
         <v>0.71095764670026618</v>
       </c>
       <c r="D5" s="1">
@@ -425,7 +425,7 @@
         <v>2.5118864315095801E-2</v>
       </c>
       <c r="C6" s="1">
-        <f>D6/A6</f>
+        <f t="shared" si="0"/>
         <v>0.71129091569886349</v>
       </c>
       <c r="D6" s="1">
@@ -437,7 +437,7 @@
         <v>3.1622776601683798E-2</v>
       </c>
       <c r="C7" s="1">
-        <f>D7/A7</f>
+        <f t="shared" si="0"/>
         <v>0.71171106457494382</v>
       </c>
       <c r="D7" s="1">
@@ -449,7 +449,7 @@
         <v>3.9810717055349699E-2</v>
       </c>
       <c r="C8" s="1">
-        <f>D8/A8</f>
+        <f t="shared" si="0"/>
         <v>0.71224037388167882</v>
       </c>
       <c r="D8" s="1">
@@ -461,7 +461,7 @@
         <v>5.0118723362727199E-2</v>
       </c>
       <c r="C9" s="1">
-        <f>D9/A9</f>
+        <f t="shared" si="0"/>
         <v>0.71290802324330704</v>
       </c>
       <c r="D9" s="1">
@@ -473,7 +473,7 @@
         <v>6.3095734448019303E-2</v>
       </c>
       <c r="C10" s="1">
-        <f>D10/A10</f>
+        <f t="shared" si="0"/>
         <v>0.71375030965209285</v>
       </c>
       <c r="D10" s="1">
@@ -485,7 +485,7 @@
         <v>7.9432823472428096E-2</v>
       </c>
       <c r="C11" s="1">
-        <f>D11/A11</f>
+        <f t="shared" si="0"/>
         <v>0.71481344257778734</v>
       </c>
       <c r="D11" s="1">
@@ -497,7 +497,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="1">
-        <f>D12/A12</f>
+        <f t="shared" si="0"/>
         <v>0.71615639999999992</v>
       </c>
       <c r="D12" s="1">
@@ -509,7 +509,7 @@
         <v>0.12589254117941601</v>
       </c>
       <c r="C13" s="1">
-        <f>D13/A13</f>
+        <f t="shared" si="0"/>
         <v>0.71785428392620532</v>
       </c>
       <c r="D13" s="1">
@@ -521,7 +521,7 @@
         <v>0.15848931924611101</v>
       </c>
       <c r="C14" s="1">
-        <f>D14/A14</f>
+        <f t="shared" si="0"/>
         <v>0.72000309259199546</v>
       </c>
       <c r="D14" s="1">
@@ -533,7 +533,7 @@
         <v>0.199526231496888</v>
       </c>
       <c r="C15" s="1">
-        <f>D15/A15</f>
+        <f t="shared" si="0"/>
         <v>0.72272702650753529</v>
       </c>
       <c r="D15" s="1">
@@ -545,7 +545,7 @@
         <v>0.25118864315095801</v>
       </c>
       <c r="C16" s="1">
-        <f>D16/A16</f>
+        <f t="shared" si="0"/>
         <v>0.72618529927078157</v>
       </c>
       <c r="D16" s="1">
@@ -557,7 +557,7 @@
         <v>0.316227766016838</v>
       </c>
       <c r="C17" s="1">
-        <f>D17/A17</f>
+        <f t="shared" si="0"/>
         <v>0.73058606747295685</v>
       </c>
       <c r="D17" s="1">
@@ -569,7 +569,7 @@
         <v>0.39810717055349698</v>
       </c>
       <c r="C18" s="1">
-        <f>D18/A18</f>
+        <f t="shared" si="0"/>
         <v>0.73620276568370768</v>
       </c>
       <c r="D18" s="1">
@@ -581,7 +581,7 @@
         <v>0.50118723362727202</v>
       </c>
       <c r="C19" s="1">
-        <f>D19/A19</f>
+        <f t="shared" si="0"/>
         <v>0.74339742715211499</v>
       </c>
       <c r="D19" s="1">
@@ -593,7 +593,7 @@
         <v>0.63095734448019303</v>
       </c>
       <c r="C20" s="1">
-        <f>D20/A20</f>
+        <f t="shared" si="0"/>
         <v>0.75265690169790522</v>
       </c>
       <c r="D20" s="1">
@@ -605,7 +605,7 @@
         <v>0.79432823472428205</v>
       </c>
       <c r="C21" s="1">
-        <f>D21/A21</f>
+        <f t="shared" si="0"/>
         <v>0.76464649429316423</v>
       </c>
       <c r="D21" s="1">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <f>D22/A22</f>
+        <f t="shared" si="0"/>
         <v>0.78029320000000002</v>
       </c>
       <c r="D22" s="1">
@@ -629,7 +629,7 @@
         <v>1.25892541179416</v>
       </c>
       <c r="C23" s="1">
-        <f>D23/A23</f>
+        <f t="shared" si="0"/>
         <v>0.8009227477289671</v>
       </c>
       <c r="D23" s="1">
@@ -641,7 +641,7 @@
         <v>1.58489319246111</v>
       </c>
       <c r="C24" s="1">
-        <f>D24/A24</f>
+        <f t="shared" si="0"/>
         <v>0.82849368414598712</v>
       </c>
       <c r="D24" s="1">
@@ -653,7 +653,7 @@
         <v>1.99526231496888</v>
       </c>
       <c r="C25" s="1">
-        <f>D25/A25</f>
+        <f t="shared" si="0"/>
         <v>0.86601395066540432</v>
       </c>
       <c r="D25" s="1">
@@ -665,7 +665,7 @@
         <v>2.5118864315095801</v>
       </c>
       <c r="C26" s="1">
-        <f>D26/A26</f>
+        <f t="shared" si="0"/>
         <v>0.91834884374676085</v>
       </c>
       <c r="D26" s="1">
@@ -677,7 +677,7 @@
         <v>3.16227766016838</v>
       </c>
       <c r="C27" s="1">
-        <f>D27/A27</f>
+        <f t="shared" si="0"/>
         <v>0.99390734709634765</v>
       </c>
       <c r="D27" s="1">
@@ -689,7 +689,7 @@
         <v>3.98107170553497</v>
       </c>
       <c r="C28" s="1">
-        <f>D28/A28</f>
+        <f t="shared" si="0"/>
         <v>1.1085582793859661</v>
       </c>
       <c r="D28" s="1">
@@ -701,7 +701,7 @@
         <v>5.01187233627273</v>
       </c>
       <c r="C29" s="1">
-        <f>D29/A29</f>
+        <f t="shared" si="0"/>
         <v>1.2960503708342119</v>
       </c>
       <c r="D29" s="1">
@@ -713,7 +713,7 @@
         <v>6.3095734448019396</v>
       </c>
       <c r="C30" s="1">
-        <f>D30/A30</f>
+        <f t="shared" si="0"/>
         <v>1.61308527256861</v>
       </c>
       <c r="D30" s="1">
@@ -725,7 +725,7 @@
         <v>7.9432823472428202</v>
       </c>
       <c r="C31" s="1">
-        <f>D31/A31</f>
+        <f t="shared" si="0"/>
         <v>1.2815369711154014</v>
       </c>
       <c r="D31" s="1">
@@ -737,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <f>D32/A32</f>
+        <f t="shared" si="0"/>
         <v>1.0179610000000001</v>
       </c>
       <c r="D32" s="1">
@@ -749,7 +749,7 @@
         <v>12.589254117941699</v>
       </c>
       <c r="C33" s="1">
-        <f>D33/A33</f>
+        <f t="shared" si="0"/>
         <v>0.80859516414816257</v>
       </c>
       <c r="D33" s="1">
@@ -761,7 +761,7 @@
         <v>15.848931924611099</v>
       </c>
       <c r="C34" s="1">
-        <f>D34/A34</f>
+        <f t="shared" si="0"/>
         <v>0.64228996934440341</v>
       </c>
       <c r="D34" s="1">
@@ -773,7 +773,7 @@
         <v>19.952623149688801</v>
       </c>
       <c r="C35" s="1">
-        <f>D35/A35</f>
+        <f t="shared" si="0"/>
         <v>0.51018905753045163</v>
       </c>
       <c r="D35" s="1">
@@ -785,7 +785,7 @@
         <v>25.118864315095799</v>
       </c>
       <c r="C36" s="1">
-        <f>D36/A36</f>
+        <f t="shared" si="0"/>
         <v>0.40525757344380864</v>
       </c>
       <c r="D36" s="1">
@@ -797,7 +797,7 @@
         <v>31.6227766016838</v>
       </c>
       <c r="C37" s="1">
-        <f>D37/A37</f>
+        <f t="shared" si="0"/>
         <v>0.32190753292226632</v>
       </c>
       <c r="D37" s="1">
@@ -809,7 +809,7 @@
         <v>39.810717055349798</v>
       </c>
       <c r="C38" s="1">
-        <f>D38/A38</f>
+        <f t="shared" si="0"/>
         <v>0.25570024237059191</v>
       </c>
       <c r="D38" s="1">
@@ -821,7 +821,7 @@
         <v>50.118723362727302</v>
       </c>
       <c r="C39" s="1">
-        <f>D39/A39</f>
+        <f t="shared" si="0"/>
         <v>0.20310992214080328</v>
       </c>
       <c r="D39" s="1">
@@ -833,7 +833,7 @@
         <v>63.0957344480194</v>
       </c>
       <c r="C40" s="1">
-        <f>D40/A40</f>
+        <f t="shared" si="0"/>
         <v>0.16133594590909056</v>
       </c>
       <c r="D40" s="1">
@@ -845,7 +845,7 @@
         <v>79.432823472428296</v>
       </c>
       <c r="C41" s="1">
-        <f>D41/A41</f>
+        <f t="shared" si="0"/>
         <v>0.12815369711153998</v>
       </c>
       <c r="D41" s="1">
@@ -857,7 +857,7 @@
         <v>100</v>
       </c>
       <c r="C42" s="1">
-        <f>D42/A42</f>
+        <f t="shared" si="0"/>
         <v>0.1017961</v>
       </c>
       <c r="D42" s="1">
@@ -869,7 +869,7 @@
         <v>125.89254117941699</v>
       </c>
       <c r="C43" s="1">
-        <f>D43/A43</f>
+        <f t="shared" si="0"/>
         <v>8.0859516414816257E-2</v>
       </c>
       <c r="D43" s="1">
@@ -881,7 +881,7 @@
         <v>158.48931924611099</v>
       </c>
       <c r="C44" s="1">
-        <f>D44/A44</f>
+        <f t="shared" si="0"/>
         <v>6.4228996934440341E-2</v>
       </c>
       <c r="D44" s="1">
@@ -893,7 +893,7 @@
         <v>199.52623149688799</v>
       </c>
       <c r="C45" s="1">
-        <f>D45/A45</f>
+        <f t="shared" si="0"/>
         <v>5.1018905753045164E-2</v>
       </c>
       <c r="D45" s="1">
